--- a/MECH0074/ExtremePressure/data/data.xlsx
+++ b/MECH0074/ExtremePressure/data/data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picku\Documents\GitHub\ME-Latex\MECH0074\ExtremePressure\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picku\Documents\GitHub\ME-HD\MECH0074\ExtremePressure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09607FF-E0C7-4ABA-BE21-24371067D424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB4405-D914-4932-B075-2A31D8342756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15510" yWindow="1710" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="L4" sheetId="1" r:id="rId1"/>
+    <sheet name="L10" sheetId="2" r:id="rId2"/>
+    <sheet name="L20" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +27,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="18">
   <si>
     <t>L = 4m</t>
   </si>
   <si>
-    <t>Element size 0.2m</t>
+    <t>Element size 0.5m</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Freq/Hz</t>
+  </si>
+  <si>
+    <t>Element size 0.25m</t>
+  </si>
+  <si>
+    <t>Element size 0.125m</t>
+  </si>
+  <si>
+    <t>Element size 0.1m</t>
+  </si>
+  <si>
+    <t>Element size 0.075m</t>
+  </si>
+  <si>
+    <t>Element size 0.05m</t>
+  </si>
+  <si>
+    <t>Element size 0.025m</t>
+  </si>
+  <si>
+    <t>Element size 0.01m</t>
+  </si>
+  <si>
+    <t>torsional</t>
+  </si>
+  <si>
+    <t>y-axis</t>
+  </si>
+  <si>
+    <t>z-axis</t>
+  </si>
+  <si>
+    <t>x-axis</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>L = 10m</t>
+  </si>
+  <si>
+    <t>L = 20m</t>
   </si>
 </sst>
 </file>
@@ -46,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,25 +408,1904 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>31.648</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>31.648</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>31.648</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>31.648</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>31.648</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>31.648</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>31.648</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>31.648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>31.648</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>31.648</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>31.648</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>31.648</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>31.648</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>31.648</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>31.648</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>31.648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>132.12</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>132.12</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>132.12</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>132.12</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>132.12</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>132.12</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>132.12</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>132.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>149.93</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>149.93</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>149.93</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>149.93</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>149.93</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>149.93</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>149.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>149.93</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>149.93</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>149.93</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>149.93</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>149.93</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>149.93</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>149.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>213.04</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>213.04</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>213.04</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>213.04</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>213.04</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>213.04</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>213.04</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>213.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>332.52</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>332.23</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>332.21</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>332.21</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>332.21</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>332.21</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>332.21</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>332.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>332.52</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>332.23</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>332.21</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>332.21</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>332.21</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>332.21</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>332.21</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>332.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>396.39</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>396.36</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>396.36</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>396.36</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>396.36</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>396.36</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>396.36</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>396.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>522.54</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>521.15</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>521.04999999999995</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>521.04999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>522.54</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>521.15</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>521.04999999999995</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>521.04999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>639.16</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>639.11</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>639.11</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>639.11</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>639.11</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>639.11</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>639.11</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>639.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>661</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>660.62</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>660.6</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>660.6</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>660.6</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>660.6</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>660.6</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>660.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>716.6</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>712.38</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>712.09</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>712.08</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>712.07</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>712.07</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>712.07</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>712.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>716.6</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>712.38</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>712.09</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>712.08</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>712.07</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>712.07</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>712.07</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>712.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>862.1</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>857.56</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>857.22</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>857.2</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>857.2</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>857.19</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>857.19</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>857.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>862.1</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>857.56</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>857.22</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>857.2</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>857.2</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>857.19</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>857.19</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>857.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>926.93</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>924.98</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>924.85</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>924.84</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>924.84</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>924.84</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>924.84</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>924.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>976</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>967.48</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>966.86</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>966.83</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>966.82</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>966.82</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>966.82</v>
+      </c>
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>966.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>976</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>967.48</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>966.86</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>966.83</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>966.82</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>966.82</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>966.82</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>966.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>31.648</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>31.648</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>132.12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>149.93</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>149.93</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>213.04</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2">
+        <v>332.21</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2">
+        <v>332.21</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>396.36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2">
+        <v>521.05999999999995</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>639.11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>660.6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2">
+        <v>712.09</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2">
+        <v>712.09</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2">
+        <v>857.22</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2">
+        <v>857.22</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>924.85</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43" s="2">
+        <v>966.86</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>966.86</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E69F1-55EB-4DB9-AEDD-4FA9C756832F}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" s="2">
+        <v>5.3535000000000004</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.3535000000000004</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31.489000000000001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31.489000000000001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>52.847999999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>80.988</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>80.988</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>85.215000000000003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>143.54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>143.54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>158.54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>214.08</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>214.08</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>255.64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>264.24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>289.12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>289.12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>366.59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>366.59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>369.94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0DAC17-317C-47AC-B14A-4B7EBBCFF2FE}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.3499000000000001</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.3499000000000001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.3175000000000008</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.3175000000000008</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22.693000000000001</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22.693000000000001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>26.423999999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>42.606999999999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42.927</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42.927</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>68.06</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>68.06</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>79.272000000000006</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>97.07</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>97.07</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>127.82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>129.07</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>129.07</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>132.12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>163.34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MECH0074/ExtremePressure/data/data.xlsx
+++ b/MECH0074/ExtremePressure/data/data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picku\Documents\GitHub\ME-HD\MECH0074\ExtremePressure\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picku\Documents\GitHub\ME-Latex\MECH0074\ExtremePressure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB4405-D914-4932-B075-2A31D8342756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F492461-87F3-4CCE-8607-DBC7CD4AA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="1710" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L4" sheetId="1" r:id="rId1"/>
     <sheet name="L10" sheetId="2" r:id="rId2"/>
     <sheet name="L20" sheetId="3" r:id="rId3"/>
+    <sheet name="Expansion loop" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
   <si>
     <t>L = 4m</t>
   </si>
@@ -82,6 +83,9 @@
   <si>
     <t>L = 20m</t>
   </si>
+  <si>
+    <t>Expansion loop</t>
+  </si>
 </sst>
 </file>
 
@@ -124,10 +128,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -427,38 +431,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1514,10 +1518,10 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>31.648</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1525,10 +1529,10 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>31.648</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1550,10 +1554,10 @@
       <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>149.93</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1561,10 +1565,10 @@
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>149.93</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1586,10 +1590,10 @@
       <c r="E31">
         <v>7</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>332.21</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1597,10 +1601,10 @@
       <c r="E32">
         <v>8</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>332.21</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1622,10 +1626,10 @@
       <c r="E34">
         <v>10</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>521.05999999999995</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1633,10 +1637,10 @@
       <c r="E35">
         <v>11</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>521.05999999999995</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1672,10 +1676,10 @@
       <c r="E38">
         <v>14</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>712.09</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1683,10 +1687,10 @@
       <c r="E39">
         <v>15</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>712.09</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1694,10 +1698,10 @@
       <c r="E40">
         <v>16</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>857.22</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1705,10 +1709,10 @@
       <c r="E41">
         <v>17</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>857.22</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1730,10 +1734,10 @@
       <c r="E43">
         <v>19</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>966.86</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1741,10 +1745,10 @@
       <c r="E44">
         <v>20</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>966.86</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1779,10 +1783,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1796,10 +1800,10 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>5.3535000000000004</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1807,10 +1811,10 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>5.3535000000000004</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1818,10 +1822,10 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>31.489000000000001</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1829,10 +1833,10 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>31.489000000000001</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1854,10 +1858,10 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>80.988</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1865,10 +1869,10 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>80.988</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1890,10 +1894,10 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>143.54</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1901,10 +1905,10 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>143.54</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1926,10 +1930,10 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>214.08</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1937,10 +1941,10 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>214.08</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1976,10 +1980,10 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>289.12</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1987,10 +1991,10 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>289.12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1998,10 +2002,10 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>366.59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2009,10 +2013,10 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>366.59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2054,10 +2058,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2071,10 +2075,10 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.3499000000000001</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2082,10 +2086,10 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1.3499000000000001</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2093,10 +2097,10 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>8.3175000000000008</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2104,10 +2108,10 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>8.3175000000000008</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2115,10 +2119,10 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>22.693000000000001</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2126,10 +2130,10 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>22.693000000000001</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2165,10 +2169,10 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>42.927</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2176,10 +2180,10 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>42.927</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2187,10 +2191,10 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>68.06</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2198,10 +2202,10 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>68.06</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2223,10 +2227,10 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>97.07</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2234,10 +2238,10 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>97.07</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2259,10 +2263,10 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>129.07</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2270,10 +2274,10 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>129.07</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2295,10 +2299,10 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>163.34</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2308,4 +2312,1123 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C960D7-390E-4D46-9448-1AA3B0F28E87}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.67818000000000001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.67788000000000004</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.67776999999999998</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.67776000000000003</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.67774999999999996</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.67774999999999996</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0.67774000000000001</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0.67774000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2.1175000000000002</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2.1154000000000002</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2.1147</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2.1145999999999998</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2.1145999999999998</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2.1145</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2.1145</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2.1145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2.6621000000000001</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2.6597</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2.6589</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2.6587999999999998</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2.6587000000000001</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2.6585999999999999</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2.6585999999999999</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2.6585999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2.8774000000000002</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2.8748999999999998</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>2.8740999999999999</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>2.8738999999999999</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>2.8738999999999999</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>2.8738999999999999</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>2.8738000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2.9645000000000001</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2.9617</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>2.9607999999999999</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2.9607000000000001</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2.9605999999999999</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>2.9605000000000001</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>2.9605000000000001</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2.9603999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3.3914</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>3.3862000000000001</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3.3845000000000001</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>3.3843000000000001</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>3.3841999999999999</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>3.3839999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>4.0449000000000002</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>4.0395000000000003</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>4.0377000000000001</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>4.0374999999999996</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>4.0373000000000001</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>4.0372000000000003</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>4.0370999999999997</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>4.0370999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>7.2503000000000002</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7.2496</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>7.2493999999999996</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>7.2493999999999996</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>7.2493999999999996</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>7.2493999999999996</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>7.2493999999999996</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>7.2493999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>7.3083</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>7.3075000000000001</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>7.3071999999999999</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>7.3071999999999999</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>7.3071999999999999</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>7.3071999999999999</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>7.3071999999999999</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>7.3071999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>7.4001999999999999</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>7.3993000000000002</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>7.399</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>7.3989000000000003</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>7.3989000000000003</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>7.3989000000000003</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>7.3989000000000003</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>7.3989000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>7.4885999999999999</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>7.4870999999999999</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>7.4866000000000001</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>7.4865000000000004</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>7.4865000000000004</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>7.4865000000000004</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>7.4863999999999997</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>7.4863999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>11.635</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>11.625</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>11.622</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>11.621</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>11.621</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>11.621</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>11.621</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>11.621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>11.718</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>11.706</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>11.702</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>11.702</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>11.701000000000001</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>11.701000000000001</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>11.701000000000001</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>11.701000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>18.064</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>18.056000000000001</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>18.053000000000001</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>18.053000000000001</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>18.052</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>18.052</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>18.052</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>18.052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>18.088999999999999</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>18.081</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>18.077999999999999</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>18.077999999999999</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>18.077000000000002</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>18.077000000000002</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>18.077000000000002</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>18.077000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>18.126999999999999</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>18.120999999999999</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>18.119</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>18.117999999999999</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>18.117999999999999</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>18.117999999999999</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>18.117999999999999</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>18.117999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>18.213999999999999</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>18.209</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>18.207000000000001</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>18.207000000000001</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>18.206</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>18.206</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>18.206</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>18.206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>20.934999999999999</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>20.928000000000001</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>20.925000000000001</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>20.925000000000001</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>20.925000000000001</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>20.923999999999999</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>20.923999999999999</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>20.923999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>21.523</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>21.515999999999998</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>21.513000000000002</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>21.513000000000002</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>21.512</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>21.512</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>21.512</v>
+      </c>
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>21.512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>21.603999999999999</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>21.591999999999999</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>21.588000000000001</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>21.588000000000001</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>21.587</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>21.587</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>21.587</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>21.587</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>